--- a/data/pca/factorExposure/factorExposure_2018-09-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03827361981751962</v>
+        <v>0.03170864118020076</v>
       </c>
       <c r="C2">
-        <v>0.04832085173869437</v>
+        <v>0.009942295846745716</v>
       </c>
       <c r="D2">
-        <v>0.03433754518604929</v>
+        <v>0.01037827321067712</v>
       </c>
       <c r="E2">
-        <v>-0.04411594187724512</v>
+        <v>-0.01409694256048919</v>
       </c>
       <c r="F2">
-        <v>0.1422005093953632</v>
+        <v>-0.02465611470838605</v>
       </c>
       <c r="G2">
-        <v>0.09691866653246607</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.07711795830819136</v>
+      </c>
+      <c r="H2">
+        <v>0.01834417199169774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1307506987227473</v>
+        <v>0.08280847454265867</v>
       </c>
       <c r="C3">
-        <v>0.02098757206017189</v>
+        <v>-0.02818637887659746</v>
       </c>
       <c r="D3">
-        <v>0.0297076477348349</v>
+        <v>0.0248979088139302</v>
       </c>
       <c r="E3">
-        <v>-0.06992462256081851</v>
+        <v>-0.008444609863157131</v>
       </c>
       <c r="F3">
-        <v>0.3774648313866576</v>
+        <v>0.002320388755998562</v>
       </c>
       <c r="G3">
-        <v>0.2607124698479786</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2625058318429324</v>
+      </c>
+      <c r="H3">
+        <v>0.04343231001279411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04625000505172659</v>
+        <v>0.04571553623529492</v>
       </c>
       <c r="C4">
-        <v>0.03584195945190809</v>
+        <v>-0.002297030542605033</v>
       </c>
       <c r="D4">
-        <v>-0.002965056865649666</v>
+        <v>0.02663764390841643</v>
       </c>
       <c r="E4">
-        <v>-0.0665191487221644</v>
+        <v>0.02237332487039427</v>
       </c>
       <c r="F4">
-        <v>0.06805546324271677</v>
+        <v>-0.0609462902827087</v>
       </c>
       <c r="G4">
-        <v>0.06743545665287472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04392973425592855</v>
+      </c>
+      <c r="H4">
+        <v>0.02885949567706657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01076283401317771</v>
+        <v>0.03027672409899615</v>
       </c>
       <c r="C6">
-        <v>0.0009197902622744773</v>
+        <v>-0.001374612306565254</v>
       </c>
       <c r="D6">
-        <v>0.01009088385118406</v>
+        <v>0.03368861662519307</v>
       </c>
       <c r="E6">
-        <v>-0.009398195739780332</v>
+        <v>0.006480324290023042</v>
       </c>
       <c r="F6">
-        <v>0.01086908562084547</v>
+        <v>-0.03881461397786698</v>
       </c>
       <c r="G6">
-        <v>-0.01735737642442105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.008746497964730609</v>
+      </c>
+      <c r="H6">
+        <v>0.05167461734179427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02450926489131753</v>
+        <v>0.02063309566600091</v>
       </c>
       <c r="C7">
-        <v>0.01892914844917342</v>
+        <v>-0.000580200058314453</v>
       </c>
       <c r="D7">
-        <v>0.02594913972586621</v>
+        <v>0.01317011225173453</v>
       </c>
       <c r="E7">
-        <v>-0.02735490012719438</v>
+        <v>0.0364909961755885</v>
       </c>
       <c r="F7">
-        <v>0.07301272918429602</v>
+        <v>-0.02350012604610446</v>
       </c>
       <c r="G7">
-        <v>0.05795996996195363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03109488651827359</v>
+      </c>
+      <c r="H7">
+        <v>0.01644465397711079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009125283129406079</v>
+        <v>0.0007548326941894622</v>
       </c>
       <c r="C8">
-        <v>0.008158656416664137</v>
+        <v>-0.0002685186180513203</v>
       </c>
       <c r="D8">
-        <v>-0.005733254032310665</v>
+        <v>0.01070323045835456</v>
       </c>
       <c r="E8">
-        <v>-0.07176036598565844</v>
+        <v>0.01332002889075459</v>
       </c>
       <c r="F8">
-        <v>0.09427243961520881</v>
+        <v>-0.02539148029658381</v>
       </c>
       <c r="G8">
-        <v>0.06490844263576936</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05093275632631918</v>
+      </c>
+      <c r="H8">
+        <v>0.009595219775284039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03791397370127567</v>
+        <v>0.03620745800403116</v>
       </c>
       <c r="C9">
-        <v>0.02987165235617302</v>
+        <v>-0.004998446680677286</v>
       </c>
       <c r="D9">
-        <v>-0.01854049832022472</v>
+        <v>0.02265654912916933</v>
       </c>
       <c r="E9">
-        <v>-0.06636981770879102</v>
+        <v>0.02048557729903432</v>
       </c>
       <c r="F9">
-        <v>0.06987411882520425</v>
+        <v>-0.03850271936589884</v>
       </c>
       <c r="G9">
-        <v>0.0476894967507219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05636989821640132</v>
+      </c>
+      <c r="H9">
+        <v>0.0286746226951452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05889372580321755</v>
+        <v>0.08671613935358903</v>
       </c>
       <c r="C10">
-        <v>0.04972083676964311</v>
+        <v>-0.04532426383711934</v>
       </c>
       <c r="D10">
-        <v>-0.02345821845506007</v>
+        <v>-0.1420330931937655</v>
       </c>
       <c r="E10">
-        <v>0.1141615690175438</v>
+        <v>-0.02014148073721606</v>
       </c>
       <c r="F10">
-        <v>0.0493687902602807</v>
+        <v>0.08432855497768305</v>
       </c>
       <c r="G10">
-        <v>-0.007188869340296033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.03083290874230038</v>
+      </c>
+      <c r="H10">
+        <v>0.004775729774007829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03125752457816681</v>
+        <v>0.02119551876748324</v>
       </c>
       <c r="C11">
-        <v>0.01097298595730176</v>
+        <v>-0.01134816610041395</v>
       </c>
       <c r="D11">
-        <v>0.01420985364389721</v>
+        <v>0.03154025232220355</v>
       </c>
       <c r="E11">
-        <v>-0.03081441222195875</v>
+        <v>-0.002790559545628954</v>
       </c>
       <c r="F11">
-        <v>0.04031040282170311</v>
+        <v>-0.02448018419128505</v>
       </c>
       <c r="G11">
-        <v>0.02156080433011372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.0321421816952355</v>
+      </c>
+      <c r="H11">
+        <v>0.028832082156489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0386744470148672</v>
+        <v>0.03002117315312066</v>
       </c>
       <c r="C12">
-        <v>0.01289739401774096</v>
+        <v>-0.01111259950864797</v>
       </c>
       <c r="D12">
-        <v>0.003326369673133713</v>
+        <v>0.03003472710561359</v>
       </c>
       <c r="E12">
-        <v>-0.04605941973716828</v>
+        <v>0.008226822526900707</v>
       </c>
       <c r="F12">
-        <v>0.02524176636314097</v>
+        <v>-0.02811608175731415</v>
       </c>
       <c r="G12">
-        <v>0.01816610711356864</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.008181144991742075</v>
+      </c>
+      <c r="H12">
+        <v>0.01534924315002741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01861545638172448</v>
+        <v>0.02606454253438547</v>
       </c>
       <c r="C13">
-        <v>0.02275607563402392</v>
+        <v>0.009703345931744947</v>
       </c>
       <c r="D13">
-        <v>0.03357198990420784</v>
+        <v>0.004320569979266377</v>
       </c>
       <c r="E13">
-        <v>-0.01799952404267494</v>
+        <v>-0.01560194158391143</v>
       </c>
       <c r="F13">
-        <v>0.08737895389491093</v>
+        <v>-0.02293360668635193</v>
       </c>
       <c r="G13">
-        <v>0.05181388744164538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05907631187002193</v>
+      </c>
+      <c r="H13">
+        <v>0.02671957662219714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01076238127954279</v>
+        <v>0.0154512545557841</v>
       </c>
       <c r="C14">
-        <v>0.02132913380364561</v>
+        <v>-0.002291301067539455</v>
       </c>
       <c r="D14">
-        <v>0.001949284739084479</v>
+        <v>0.0002551412677900648</v>
       </c>
       <c r="E14">
-        <v>-0.0343122389052327</v>
+        <v>0.008391233535494213</v>
       </c>
       <c r="F14">
-        <v>0.07428254541647412</v>
+        <v>-0.02510111168053633</v>
       </c>
       <c r="G14">
-        <v>0.05630283225821625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.0415960170920396</v>
+      </c>
+      <c r="H14">
+        <v>-0.01796809952728378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02457202807816363</v>
+        <v>0.02230571041551783</v>
       </c>
       <c r="C16">
-        <v>0.01207401645099476</v>
+        <v>-0.01205883073939192</v>
       </c>
       <c r="D16">
-        <v>0.01184411862326447</v>
+        <v>0.02692524269786164</v>
       </c>
       <c r="E16">
-        <v>-0.03081281227634256</v>
+        <v>0.002080596430655814</v>
       </c>
       <c r="F16">
-        <v>0.04062660980363215</v>
+        <v>-0.02568165385015816</v>
       </c>
       <c r="G16">
-        <v>0.02572042558092626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02649621471168648</v>
+      </c>
+      <c r="H16">
+        <v>0.02272767507748173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03781311835241485</v>
+        <v>0.03461982907413458</v>
       </c>
       <c r="C19">
-        <v>0.01281218943441094</v>
+        <v>-0.006089077041406292</v>
       </c>
       <c r="D19">
-        <v>0.02063330103509223</v>
+        <v>0.01088788188616243</v>
       </c>
       <c r="E19">
-        <v>-0.03973693226026597</v>
+        <v>-0.001296949435398036</v>
       </c>
       <c r="F19">
-        <v>0.1019396470100299</v>
+        <v>-0.03181791070826122</v>
       </c>
       <c r="G19">
-        <v>0.06288836109162779</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.06359962115515251</v>
+      </c>
+      <c r="H19">
+        <v>0.0403262122418379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.007650855330403133</v>
+        <v>0.007076167539987925</v>
       </c>
       <c r="C20">
-        <v>0.02028002492973831</v>
+        <v>0.0065508749108853</v>
       </c>
       <c r="D20">
-        <v>0.005181347963659716</v>
+        <v>0.0004270162405637611</v>
       </c>
       <c r="E20">
-        <v>-0.02798687652445344</v>
+        <v>0.002043110374216727</v>
       </c>
       <c r="F20">
-        <v>0.06787737385278977</v>
+        <v>-0.01711117169348811</v>
       </c>
       <c r="G20">
-        <v>0.06221050180194832</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04966837753736271</v>
+      </c>
+      <c r="H20">
+        <v>-0.008187993808673062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.001858584960130655</v>
+        <v>0.02242617166024341</v>
       </c>
       <c r="C21">
-        <v>-0.0036161825715466</v>
+        <v>0.002607575222732452</v>
       </c>
       <c r="D21">
-        <v>0.005492250680111697</v>
+        <v>0.0005202150261593548</v>
       </c>
       <c r="E21">
-        <v>-0.03105813558986205</v>
+        <v>0.01301057288940721</v>
       </c>
       <c r="F21">
-        <v>0.08740829282357492</v>
+        <v>-0.00803515794091106</v>
       </c>
       <c r="G21">
-        <v>0.01869133057947364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.0511842419123776</v>
+      </c>
+      <c r="H21">
+        <v>0.009381940451915032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02629233845768077</v>
+        <v>0.02145924668965819</v>
       </c>
       <c r="C24">
-        <v>0.01132678916387734</v>
+        <v>-0.006461053521354941</v>
       </c>
       <c r="D24">
-        <v>0.008654490904477015</v>
+        <v>0.02762212282358498</v>
       </c>
       <c r="E24">
-        <v>-0.02514692002706459</v>
+        <v>0.002070432143772494</v>
       </c>
       <c r="F24">
-        <v>0.03963185238660588</v>
+        <v>-0.02150240646837278</v>
       </c>
       <c r="G24">
-        <v>0.01295926976317446</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02603562428158778</v>
+      </c>
+      <c r="H24">
+        <v>0.02839535753220401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02992569837818302</v>
+        <v>0.03230403231595999</v>
       </c>
       <c r="C25">
-        <v>0.0106073713135026</v>
+        <v>-0.006728734479671859</v>
       </c>
       <c r="D25">
-        <v>0.007060551343460589</v>
+        <v>0.02291509581055921</v>
       </c>
       <c r="E25">
-        <v>-0.03145521991591906</v>
+        <v>0.002273586058938611</v>
       </c>
       <c r="F25">
-        <v>0.03749539296172263</v>
+        <v>-0.02673242640248575</v>
       </c>
       <c r="G25">
-        <v>0.006326840249580294</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03026519209117844</v>
+      </c>
+      <c r="H25">
+        <v>0.03093986622668723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01761206090722676</v>
+        <v>0.0195460569152358</v>
       </c>
       <c r="C26">
-        <v>-0.001599705269264209</v>
+        <v>0.01544573144594083</v>
       </c>
       <c r="D26">
-        <v>0.03364450585439956</v>
+        <v>0.005167537538824147</v>
       </c>
       <c r="E26">
-        <v>-0.03873174252599904</v>
+        <v>-0.005463282221271434</v>
       </c>
       <c r="F26">
-        <v>0.05759586262748488</v>
+        <v>-0.005878018275701034</v>
       </c>
       <c r="G26">
-        <v>0.03455394787259016</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03571754881104228</v>
+      </c>
+      <c r="H26">
+        <v>-0.001449513032994407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07248217030571072</v>
+        <v>0.03182631354244393</v>
       </c>
       <c r="C27">
-        <v>0.0520993540967792</v>
+        <v>-0.01815578010947301</v>
       </c>
       <c r="D27">
-        <v>-0.003001604169146299</v>
+        <v>0.005673093539928904</v>
       </c>
       <c r="E27">
-        <v>-0.0504392069482867</v>
+        <v>0.004552269613735643</v>
       </c>
       <c r="F27">
-        <v>0.06589883960663827</v>
+        <v>-0.02628226356292028</v>
       </c>
       <c r="G27">
-        <v>0.06691214912841593</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02580488733621548</v>
+      </c>
+      <c r="H27">
+        <v>-0.001264526623748739</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08311857872050259</v>
+        <v>0.1326825572738196</v>
       </c>
       <c r="C28">
-        <v>0.06391616423757918</v>
+        <v>-0.05477457702618113</v>
       </c>
       <c r="D28">
-        <v>-0.04022121987830041</v>
+        <v>-0.2089483534895796</v>
       </c>
       <c r="E28">
-        <v>0.1706120095063798</v>
+        <v>-0.02574745337498824</v>
       </c>
       <c r="F28">
-        <v>0.06074414253825958</v>
+        <v>0.1154679692636667</v>
       </c>
       <c r="G28">
-        <v>0.02037530027785875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.0134855305806867</v>
+      </c>
+      <c r="H28">
+        <v>-0.007990126708901984</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01940533388967414</v>
+        <v>0.02055591024031119</v>
       </c>
       <c r="C29">
-        <v>0.02308222659866171</v>
+        <v>-0.005428529532896877</v>
       </c>
       <c r="D29">
-        <v>-0.002903307049966727</v>
+        <v>0.003039925136555568</v>
       </c>
       <c r="E29">
-        <v>-0.05599334209285893</v>
+        <v>0.01023704383659993</v>
       </c>
       <c r="F29">
-        <v>0.05791140989851312</v>
+        <v>-0.02847013716101901</v>
       </c>
       <c r="G29">
-        <v>0.05535999365213344</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.0337997601355311</v>
+      </c>
+      <c r="H29">
+        <v>-0.01970281627785163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07909905659801179</v>
+        <v>0.05459886330932333</v>
       </c>
       <c r="C30">
-        <v>0.05539302288929271</v>
+        <v>-0.005083758059429917</v>
       </c>
       <c r="D30">
-        <v>0.03308759451980962</v>
+        <v>0.05028520245643829</v>
       </c>
       <c r="E30">
-        <v>-0.09046000643066941</v>
+        <v>-0.03286298645698223</v>
       </c>
       <c r="F30">
-        <v>0.06477951934163664</v>
+        <v>-0.07872223349723072</v>
       </c>
       <c r="G30">
-        <v>0.02621418046211078</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06169080021657682</v>
+      </c>
+      <c r="H30">
+        <v>0.03988517488035327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05682204977842234</v>
+        <v>0.05164924241930322</v>
       </c>
       <c r="C31">
-        <v>0.01878201505581158</v>
+        <v>-0.02271375056443</v>
       </c>
       <c r="D31">
-        <v>0.04528030353544819</v>
+        <v>0.02075224629737825</v>
       </c>
       <c r="E31">
-        <v>-0.034742433741079</v>
+        <v>-0.008219791387445849</v>
       </c>
       <c r="F31">
-        <v>0.04518063691488258</v>
+        <v>-0.02265898392820108</v>
       </c>
       <c r="G31">
-        <v>0.08807457887353891</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01852306926738234</v>
+      </c>
+      <c r="H31">
+        <v>-0.01555126657670117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01112905928867021</v>
+        <v>0.006124349945607487</v>
       </c>
       <c r="C32">
-        <v>0.0197570606052054</v>
+        <v>-0.0147917033812338</v>
       </c>
       <c r="D32">
-        <v>-0.003907745171480742</v>
+        <v>-0.004966386161449933</v>
       </c>
       <c r="E32">
-        <v>-0.07160847730518162</v>
+        <v>0.01982897328937728</v>
       </c>
       <c r="F32">
-        <v>0.07011898245035637</v>
+        <v>-0.04224383589449619</v>
       </c>
       <c r="G32">
-        <v>0.04601257439885707</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.04709658301558166</v>
+      </c>
+      <c r="H32">
+        <v>0.04181999475355994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04933973697749244</v>
+        <v>0.03818863533468249</v>
       </c>
       <c r="C33">
-        <v>0.002615302115184472</v>
+        <v>-0.006123420432780852</v>
       </c>
       <c r="D33">
-        <v>0.04347034961376277</v>
+        <v>0.03081338973704962</v>
       </c>
       <c r="E33">
-        <v>-0.0654637642281458</v>
+        <v>-0.02158016231493277</v>
       </c>
       <c r="F33">
-        <v>0.09370457484603002</v>
+        <v>-0.01680760057390628</v>
       </c>
       <c r="G33">
-        <v>0.04468469817205352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05728567065417436</v>
+      </c>
+      <c r="H33">
+        <v>0.01841227003864966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02900788365488438</v>
+        <v>0.02463279852454072</v>
       </c>
       <c r="C34">
-        <v>0.01678075928392706</v>
+        <v>-0.02080966332076332</v>
       </c>
       <c r="D34">
-        <v>0.0104564239032703</v>
+        <v>0.0261649925539306</v>
       </c>
       <c r="E34">
-        <v>-0.03482397618222373</v>
+        <v>0.006565299627260413</v>
       </c>
       <c r="F34">
-        <v>0.04535822855297475</v>
+        <v>-0.02727536058703931</v>
       </c>
       <c r="G34">
-        <v>0.01466393826433617</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02510733298005068</v>
+      </c>
+      <c r="H34">
+        <v>0.02603183823371186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01357706736376757</v>
+        <v>0.01874332954920754</v>
       </c>
       <c r="C36">
-        <v>0.009637008117622067</v>
+        <v>0.00166588222437239</v>
       </c>
       <c r="D36">
-        <v>0.001523384897441782</v>
+        <v>-0.002212623311876629</v>
       </c>
       <c r="E36">
-        <v>-0.02622784011023883</v>
+        <v>0.00263434126145069</v>
       </c>
       <c r="F36">
-        <v>0.03086784759588139</v>
+        <v>-0.006534184727418802</v>
       </c>
       <c r="G36">
-        <v>0.03396310231129414</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01923673822581743</v>
+      </c>
+      <c r="H36">
+        <v>-0.004494062773189935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006561256492188621</v>
+        <v>0.01567486660635433</v>
       </c>
       <c r="C38">
-        <v>-0.002177810397136542</v>
+        <v>-0.01816137258824036</v>
       </c>
       <c r="D38">
-        <v>-0.01380188953615488</v>
+        <v>-0.004304516361183038</v>
       </c>
       <c r="E38">
-        <v>0.007031639539879144</v>
+        <v>0.006224219638845078</v>
       </c>
       <c r="F38">
-        <v>0.0006243336226519959</v>
+        <v>-0.007129519396423659</v>
       </c>
       <c r="G38">
-        <v>-0.00207849966088939</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02537344767857948</v>
+      </c>
+      <c r="H38">
+        <v>0.02000764296465184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03759977864300842</v>
+        <v>0.02384320025070932</v>
       </c>
       <c r="C39">
-        <v>0.02445631030720156</v>
+        <v>-0.00511868256469576</v>
       </c>
       <c r="D39">
-        <v>0.02712760749376271</v>
+        <v>0.06274553418827514</v>
       </c>
       <c r="E39">
-        <v>-0.03365228466031755</v>
+        <v>-0.0007322852594577747</v>
       </c>
       <c r="F39">
-        <v>0.04762232668033158</v>
+        <v>-0.04832507872618864</v>
       </c>
       <c r="G39">
-        <v>0.0169085230979105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05018746455699039</v>
+      </c>
+      <c r="H39">
+        <v>0.0516363502948738</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0278673285845926</v>
+        <v>0.02776856784952885</v>
       </c>
       <c r="C40">
-        <v>0.03563665333624556</v>
+        <v>-0.004550418357457078</v>
       </c>
       <c r="D40">
-        <v>0.05246056569543525</v>
+        <v>0.02218685421778965</v>
       </c>
       <c r="E40">
-        <v>-0.03831356370999296</v>
+        <v>-0.01805916740390796</v>
       </c>
       <c r="F40">
-        <v>0.08268041433604426</v>
+        <v>-0.03929986963834912</v>
       </c>
       <c r="G40">
-        <v>0.06377282027338235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.0341782277893374</v>
+      </c>
+      <c r="H40">
+        <v>0.04510155770724604</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.003265667229674442</v>
+        <v>0.007621533051619569</v>
       </c>
       <c r="C41">
-        <v>-0.01085463590794836</v>
+        <v>0.0004250524987106562</v>
       </c>
       <c r="D41">
-        <v>0.006361690129581128</v>
+        <v>-0.008233762522151284</v>
       </c>
       <c r="E41">
-        <v>-0.01908464437302661</v>
+        <v>-0.0008661393705149237</v>
       </c>
       <c r="F41">
-        <v>0.02349154789246615</v>
+        <v>0.006133817306407938</v>
       </c>
       <c r="G41">
-        <v>0.05500827076513459</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.006963314019188552</v>
+      </c>
+      <c r="H41">
+        <v>-0.01850159346470335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4013954149763767</v>
+        <v>0.2291224626656333</v>
       </c>
       <c r="C42">
-        <v>-0.877140583665536</v>
+        <v>0.07658109748646398</v>
       </c>
       <c r="D42">
-        <v>0.1697138205444459</v>
+        <v>0.6025094783742553</v>
       </c>
       <c r="E42">
-        <v>0.1088958076732147</v>
+        <v>-0.1177248534972824</v>
       </c>
       <c r="F42">
-        <v>-0.02900812636582524</v>
+        <v>0.7367840918370052</v>
       </c>
       <c r="G42">
-        <v>0.005715506679018697</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.07843613919395301</v>
+      </c>
+      <c r="H42">
+        <v>0.01258315278900649</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.009827083033651068</v>
+        <v>0.005128391975222715</v>
       </c>
       <c r="C43">
-        <v>-0.005971095800831599</v>
+        <v>0.003041184782979126</v>
       </c>
       <c r="D43">
-        <v>0.01098182204173175</v>
+        <v>-0.009860444276400529</v>
       </c>
       <c r="E43">
-        <v>-0.01947334388646198</v>
+        <v>-0.005201741007316577</v>
       </c>
       <c r="F43">
-        <v>0.03877389878753625</v>
+        <v>0.009991940720621921</v>
       </c>
       <c r="G43">
-        <v>0.05310148396746331</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01459602725762262</v>
+      </c>
+      <c r="H43">
+        <v>-0.01072209820360455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01688602613275188</v>
+        <v>0.01209432335403964</v>
       </c>
       <c r="C44">
-        <v>0.005293770718360593</v>
+        <v>-0.001056750015534927</v>
       </c>
       <c r="D44">
-        <v>0.01910337195473898</v>
+        <v>0.02063233436030574</v>
       </c>
       <c r="E44">
-        <v>-0.04523892028327194</v>
+        <v>0.002665471775638874</v>
       </c>
       <c r="F44">
-        <v>0.1991003272830503</v>
+        <v>-0.006203232736971118</v>
       </c>
       <c r="G44">
-        <v>0.1645904849594328</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08355011330227642</v>
+      </c>
+      <c r="H44">
+        <v>0.01688520023084835</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01566702007982804</v>
+        <v>0.02177332968235715</v>
       </c>
       <c r="C46">
-        <v>0.02013347001106897</v>
+        <v>-0.002007604444317018</v>
       </c>
       <c r="D46">
-        <v>0.01305494337905813</v>
+        <v>0.005565121522236261</v>
       </c>
       <c r="E46">
-        <v>-0.05822570686505123</v>
+        <v>-0.001508563960311525</v>
       </c>
       <c r="F46">
-        <v>0.06266069976008472</v>
+        <v>-0.03361268957078065</v>
       </c>
       <c r="G46">
-        <v>0.04608276205937622</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05235020984761006</v>
+      </c>
+      <c r="H46">
+        <v>-0.01348473278257917</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09163141533352427</v>
+        <v>0.0707449629068</v>
       </c>
       <c r="C47">
-        <v>0.03520447690773111</v>
+        <v>-0.04159406763180271</v>
       </c>
       <c r="D47">
-        <v>0.02472261831543947</v>
+        <v>0.02772365519874798</v>
       </c>
       <c r="E47">
-        <v>-0.04909636928665833</v>
+        <v>-0.004033389145971678</v>
       </c>
       <c r="F47">
-        <v>0.01332216203597618</v>
+        <v>-0.03479166125124076</v>
       </c>
       <c r="G47">
-        <v>0.09196225815652555</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01322494394388324</v>
+      </c>
+      <c r="H47">
+        <v>-0.0322228737150396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.008799236685220946</v>
+        <v>0.01688952593061877</v>
       </c>
       <c r="C48">
-        <v>0.00474691579170246</v>
+        <v>-0.007931766897664814</v>
       </c>
       <c r="D48">
-        <v>0.01218613745692527</v>
+        <v>0.00398285743104008</v>
       </c>
       <c r="E48">
-        <v>-0.03912768881975923</v>
+        <v>-0.0007662442322906501</v>
       </c>
       <c r="F48">
-        <v>0.04410393609951235</v>
+        <v>-0.01179085004285285</v>
       </c>
       <c r="G48">
-        <v>0.01008373124844033</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02567409054993163</v>
+      </c>
+      <c r="H48">
+        <v>0.0002315966015031705</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08417070329277775</v>
+        <v>0.06397325224537265</v>
       </c>
       <c r="C50">
-        <v>0.01904175347175998</v>
+        <v>-0.03467240544207526</v>
       </c>
       <c r="D50">
-        <v>0.0341483748220456</v>
+        <v>0.03833036171834699</v>
       </c>
       <c r="E50">
-        <v>-0.05637967823676045</v>
+        <v>0.01119162323416041</v>
       </c>
       <c r="F50">
-        <v>0.0315992177821463</v>
+        <v>-0.03121495879429116</v>
       </c>
       <c r="G50">
-        <v>0.02218280858568389</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0179081976419965</v>
+      </c>
+      <c r="H50">
+        <v>-0.02706053861572451</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0390441036157308</v>
+        <v>0.02542346937390019</v>
       </c>
       <c r="C51">
-        <v>-0.002249764659112778</v>
+        <v>-0.004358922053759712</v>
       </c>
       <c r="D51">
-        <v>0.04151308949189372</v>
+        <v>-0.003575718503228141</v>
       </c>
       <c r="E51">
-        <v>-0.00490891072009335</v>
+        <v>-0.01308858308841936</v>
       </c>
       <c r="F51">
-        <v>0.1510197810939611</v>
+        <v>0.01762802048843984</v>
       </c>
       <c r="G51">
-        <v>0.05911682472029443</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07686127077369237</v>
+      </c>
+      <c r="H51">
+        <v>0.02061159163752059</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1008034375147089</v>
+        <v>0.08940674951010773</v>
       </c>
       <c r="C53">
-        <v>0.04870030874214214</v>
+        <v>-0.05160943480050167</v>
       </c>
       <c r="D53">
-        <v>0.04246115152635861</v>
+        <v>0.05346760883419033</v>
       </c>
       <c r="E53">
-        <v>-0.06201560586063954</v>
+        <v>-0.001348885571230742</v>
       </c>
       <c r="F53">
-        <v>-0.05374719067127061</v>
+        <v>-0.0682669161727717</v>
       </c>
       <c r="G53">
-        <v>0.04185742477163271</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05786526904448149</v>
+      </c>
+      <c r="H53">
+        <v>-0.03841763592060695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0208663480028095</v>
+        <v>0.02344400722647438</v>
       </c>
       <c r="C54">
-        <v>0.03609230127882061</v>
+        <v>-0.01728542559779574</v>
       </c>
       <c r="D54">
-        <v>0.001168562665378213</v>
+        <v>-0.02234853217745942</v>
       </c>
       <c r="E54">
-        <v>-0.03259596063404296</v>
+        <v>0.003137899676822061</v>
       </c>
       <c r="F54">
-        <v>0.08388093224694333</v>
+        <v>-0.01090404102259717</v>
       </c>
       <c r="G54">
-        <v>0.06304078750424859</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03966966590712586</v>
+      </c>
+      <c r="H54">
+        <v>-0.01848915752351711</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09757856282921508</v>
+        <v>0.07726184929207892</v>
       </c>
       <c r="C55">
-        <v>0.03584558158651022</v>
+        <v>-0.04550673010013767</v>
       </c>
       <c r="D55">
-        <v>-0.001337019089397923</v>
+        <v>0.05163155888165998</v>
       </c>
       <c r="E55">
-        <v>-0.06536834738259444</v>
+        <v>0.01046017569485396</v>
       </c>
       <c r="F55">
-        <v>-0.04079363575163994</v>
+        <v>-0.05818262219062806</v>
       </c>
       <c r="G55">
-        <v>0.05432270342507425</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03250827488286839</v>
+      </c>
+      <c r="H55">
+        <v>-0.04834780764747836</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1388657159322234</v>
+        <v>0.1176407336400311</v>
       </c>
       <c r="C56">
-        <v>0.07854766978810905</v>
+        <v>-0.0747586590110447</v>
       </c>
       <c r="D56">
-        <v>0.02866878797126</v>
+        <v>0.06952809735654682</v>
       </c>
       <c r="E56">
-        <v>-0.08117612631372402</v>
+        <v>0.003477697947958196</v>
       </c>
       <c r="F56">
-        <v>-0.162359481004585</v>
+        <v>-0.09672241564859671</v>
       </c>
       <c r="G56">
-        <v>0.03450296569063224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1007192529767572</v>
+      </c>
+      <c r="H56">
+        <v>-0.03083488232507483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0436275636697971</v>
+        <v>0.04357619515135053</v>
       </c>
       <c r="C57">
-        <v>0.01283299879972419</v>
+        <v>0.002568356440190664</v>
       </c>
       <c r="D57">
-        <v>0.0278405285883533</v>
+        <v>0.01924145502636736</v>
       </c>
       <c r="E57">
-        <v>-0.01783477203482519</v>
+        <v>-0.01015943166296845</v>
       </c>
       <c r="F57">
-        <v>0.07060494193854504</v>
+        <v>-0.02465467703200932</v>
       </c>
       <c r="G57">
-        <v>0.02188564470457543</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06548379667686029</v>
+      </c>
+      <c r="H57">
+        <v>0.01303045514560045</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2049484071560206</v>
+        <v>0.1545586752704632</v>
       </c>
       <c r="C58">
-        <v>0.06258900759323052</v>
+        <v>-0.07205900890240451</v>
       </c>
       <c r="D58">
-        <v>0.1113316525975644</v>
+        <v>0.1175848330466858</v>
       </c>
       <c r="E58">
-        <v>-0.219958643423726</v>
+        <v>-0.1162199386596872</v>
       </c>
       <c r="F58">
-        <v>0.331509235703226</v>
+        <v>-0.06726599152043326</v>
       </c>
       <c r="G58">
-        <v>-0.3957075307626389</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.7003792987432886</v>
+      </c>
+      <c r="H58">
+        <v>-0.5277168801774335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08129766285720738</v>
+        <v>0.1340424309070097</v>
       </c>
       <c r="C59">
-        <v>0.08836306841477783</v>
+        <v>-0.06200527358849649</v>
       </c>
       <c r="D59">
-        <v>-0.03282611104428723</v>
+        <v>-0.2071237768402304</v>
       </c>
       <c r="E59">
-        <v>0.1504535062514345</v>
+        <v>-0.04228212922916866</v>
       </c>
       <c r="F59">
-        <v>0.0534558086567303</v>
+        <v>0.0952497239698768</v>
       </c>
       <c r="G59">
-        <v>-0.01000892514120657</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01836682741939818</v>
+      </c>
+      <c r="H59">
+        <v>0.02371345134059497</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1707580627819345</v>
+        <v>0.1683579532622555</v>
       </c>
       <c r="C60">
-        <v>0.07284353465943137</v>
+        <v>-0.06737270757640054</v>
       </c>
       <c r="D60">
-        <v>0.06226689275960156</v>
+        <v>0.01157895115249727</v>
       </c>
       <c r="E60">
-        <v>-0.02440026623845303</v>
+        <v>-0.05305064484555817</v>
       </c>
       <c r="F60">
-        <v>0.06612075569889715</v>
+        <v>-0.06752087835702186</v>
       </c>
       <c r="G60">
-        <v>-0.2675324440772678</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1156973496084288</v>
+      </c>
+      <c r="H60">
+        <v>0.3772317117577384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01986231127264665</v>
+        <v>0.02239627555341762</v>
       </c>
       <c r="C61">
-        <v>0.01144793325183882</v>
+        <v>-0.01017385199919797</v>
       </c>
       <c r="D61">
-        <v>0.004300863788703792</v>
+        <v>0.03377543758174053</v>
       </c>
       <c r="E61">
-        <v>-0.01832639435115781</v>
+        <v>0.003504405367292653</v>
       </c>
       <c r="F61">
-        <v>0.03943719574103381</v>
+        <v>-0.03355526721851495</v>
       </c>
       <c r="G61">
-        <v>0.003078279338540032</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03035402102817886</v>
+      </c>
+      <c r="H61">
+        <v>0.03830539360401036</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01640069455129639</v>
+        <v>0.01364759881098155</v>
       </c>
       <c r="C63">
-        <v>0.01411730047976777</v>
+        <v>-0.0007208458249437085</v>
       </c>
       <c r="D63">
-        <v>0.01245477499497558</v>
+        <v>0.004859089031493823</v>
       </c>
       <c r="E63">
-        <v>-0.04138969300539366</v>
+        <v>0.002448322208064302</v>
       </c>
       <c r="F63">
-        <v>0.01925780167224028</v>
+        <v>-0.02072415744743347</v>
       </c>
       <c r="G63">
-        <v>0.03662694374454275</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01703507992396815</v>
+      </c>
+      <c r="H63">
+        <v>-0.01256944079286843</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02934080683353741</v>
+        <v>0.03848431971375154</v>
       </c>
       <c r="C64">
-        <v>0.02138792749394799</v>
+        <v>-0.01636078175954771</v>
       </c>
       <c r="D64">
-        <v>-0.01967981664450947</v>
+        <v>0.03077619763552298</v>
       </c>
       <c r="E64">
-        <v>-0.04417148905586454</v>
+        <v>0.01428583329949052</v>
       </c>
       <c r="F64">
-        <v>0.02256206300881237</v>
+        <v>-0.03119248071347541</v>
       </c>
       <c r="G64">
-        <v>0.07153412042744199</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.007190696783140957</v>
+      </c>
+      <c r="H64">
+        <v>0.02818532738561348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01091837622819065</v>
+        <v>0.03511292279519389</v>
       </c>
       <c r="C65">
-        <v>-0.0004192020545831805</v>
+        <v>-0.001643816047364349</v>
       </c>
       <c r="D65">
-        <v>0.008962679617249485</v>
+        <v>0.03802217062044901</v>
       </c>
       <c r="E65">
-        <v>-0.005344788746003577</v>
+        <v>0.006657736519973854</v>
       </c>
       <c r="F65">
-        <v>0.006302658858913039</v>
+        <v>-0.03963090765381364</v>
       </c>
       <c r="G65">
-        <v>-0.0181815156941799</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-3.15347361502582e-05</v>
+      </c>
+      <c r="H65">
+        <v>0.05951739019269345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03453025216377821</v>
+        <v>0.02991633939505995</v>
       </c>
       <c r="C66">
-        <v>0.02809936132131241</v>
+        <v>-0.01119873629415437</v>
       </c>
       <c r="D66">
-        <v>0.0203697037532263</v>
+        <v>0.06925304848403908</v>
       </c>
       <c r="E66">
-        <v>-0.03801332178695845</v>
+        <v>-0.005594705824428787</v>
       </c>
       <c r="F66">
-        <v>0.03883708309093786</v>
+        <v>-0.06838853768438941</v>
       </c>
       <c r="G66">
-        <v>0.009801442223294429</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04026441805798187</v>
+      </c>
+      <c r="H66">
+        <v>0.06284886052806049</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02596062114446812</v>
+        <v>0.03513346684212552</v>
       </c>
       <c r="C67">
-        <v>0.008481161004970766</v>
+        <v>-0.02473555722478354</v>
       </c>
       <c r="D67">
-        <v>-0.01573901911921452</v>
+        <v>-0.01147111261631702</v>
       </c>
       <c r="E67">
-        <v>0.03330317385659097</v>
+        <v>0.002734237343389988</v>
       </c>
       <c r="F67">
-        <v>0.003885114012210453</v>
+        <v>-0.009460135997877551</v>
       </c>
       <c r="G67">
-        <v>0.000684710764495611</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01449531169048277</v>
+      </c>
+      <c r="H67">
+        <v>0.03108989506825997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08917137158548002</v>
+        <v>0.1374754994355914</v>
       </c>
       <c r="C68">
-        <v>0.07043019327775761</v>
+        <v>-0.04040371648248819</v>
       </c>
       <c r="D68">
-        <v>-0.04729343426013011</v>
+        <v>-0.1934748840231668</v>
       </c>
       <c r="E68">
-        <v>0.1683541339431242</v>
+        <v>-0.03720042114840531</v>
       </c>
       <c r="F68">
-        <v>0.02903318652789579</v>
+        <v>0.1138522780108901</v>
       </c>
       <c r="G68">
-        <v>-0.06347595027038938</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.0204361494213783</v>
+      </c>
+      <c r="H68">
+        <v>-0.03697523792756455</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07074451339751378</v>
+        <v>0.05532413096946377</v>
       </c>
       <c r="C69">
-        <v>0.0345277721200779</v>
+        <v>-0.03745456413638263</v>
       </c>
       <c r="D69">
-        <v>0.02341152075213984</v>
+        <v>0.02506361438562302</v>
       </c>
       <c r="E69">
-        <v>-0.009095760593638914</v>
+        <v>-0.004014845280981502</v>
       </c>
       <c r="F69">
-        <v>0.02304143874060097</v>
+        <v>-0.03320969895326618</v>
       </c>
       <c r="G69">
-        <v>0.07079569074517997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.005619388571644633</v>
+      </c>
+      <c r="H69">
+        <v>-0.01340796922407862</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1071324407682787</v>
+        <v>0.1313632117592536</v>
       </c>
       <c r="C71">
-        <v>0.07475606309537113</v>
+        <v>-0.0480360318984785</v>
       </c>
       <c r="D71">
-        <v>-0.02562309389976836</v>
+        <v>-0.1807657810629281</v>
       </c>
       <c r="E71">
-        <v>0.2155205392105008</v>
+        <v>-0.03729008025921669</v>
       </c>
       <c r="F71">
-        <v>0.04205576924096684</v>
+        <v>0.1197043802370969</v>
       </c>
       <c r="G71">
-        <v>-0.00493639469865368</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01622495489628746</v>
+      </c>
+      <c r="H71">
+        <v>-0.02187854879304076</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1088535246624558</v>
+        <v>0.08444176850768551</v>
       </c>
       <c r="C72">
-        <v>0.09690499713760944</v>
+        <v>-0.05704901697302128</v>
       </c>
       <c r="D72">
-        <v>0.016388810768261</v>
+        <v>0.05565274579209022</v>
       </c>
       <c r="E72">
-        <v>-0.06990394799914663</v>
+        <v>-0.007193024414923049</v>
       </c>
       <c r="F72">
-        <v>0.0928833431817801</v>
+        <v>-0.1123904922333917</v>
       </c>
       <c r="G72">
-        <v>-0.1590068701577289</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.09297163291880717</v>
+      </c>
+      <c r="H72">
+        <v>0.1501765952832014</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2574029567038409</v>
+        <v>0.2384837403604658</v>
       </c>
       <c r="C73">
-        <v>0.1099856743608603</v>
+        <v>-0.09089069198497277</v>
       </c>
       <c r="D73">
-        <v>0.05839192075879267</v>
+        <v>0.03860812131073425</v>
       </c>
       <c r="E73">
-        <v>0.02463108848516089</v>
+        <v>-0.08295657869918024</v>
       </c>
       <c r="F73">
-        <v>0.135290398064319</v>
+        <v>-0.08447404958470472</v>
       </c>
       <c r="G73">
-        <v>-0.4123312481111877</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1716869185378406</v>
+      </c>
+      <c r="H73">
+        <v>0.5137279996008286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1199423325248305</v>
+        <v>0.1063873068676882</v>
       </c>
       <c r="C74">
-        <v>0.04615549570773737</v>
+        <v>-0.06693924963314933</v>
       </c>
       <c r="D74">
-        <v>0.03218541782241372</v>
+        <v>0.07040662807677293</v>
       </c>
       <c r="E74">
-        <v>-0.03854270949615594</v>
+        <v>-0.004451164101121595</v>
       </c>
       <c r="F74">
-        <v>-0.1184681815686576</v>
+        <v>-0.08100536576674221</v>
       </c>
       <c r="G74">
-        <v>0.02588823372510176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.08251578096571741</v>
+      </c>
+      <c r="H74">
+        <v>-0.01089622184898698</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2121755527087005</v>
+        <v>0.2112003354250187</v>
       </c>
       <c r="C75">
-        <v>0.1212644887583882</v>
+        <v>-0.1349963067854879</v>
       </c>
       <c r="D75">
-        <v>0.07246311345945732</v>
+        <v>0.1041167555700609</v>
       </c>
       <c r="E75">
-        <v>-0.1025131645748755</v>
+        <v>-0.02245233934449459</v>
       </c>
       <c r="F75">
-        <v>-0.1720663975243538</v>
+        <v>-0.159258812898499</v>
       </c>
       <c r="G75">
-        <v>0.1073230941145663</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1587532291980869</v>
+      </c>
+      <c r="H75">
+        <v>-0.09450648027112657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2500323191920221</v>
+        <v>0.1964579186404629</v>
       </c>
       <c r="C76">
-        <v>0.126017963392541</v>
+        <v>-0.1297575942694771</v>
       </c>
       <c r="D76">
-        <v>0.01340458067566399</v>
+        <v>0.09373981048667693</v>
       </c>
       <c r="E76">
-        <v>-0.06580093428464499</v>
+        <v>0.01765295177120425</v>
       </c>
       <c r="F76">
-        <v>-0.1939507479957186</v>
+        <v>-0.1543483938147458</v>
       </c>
       <c r="G76">
-        <v>0.09162470820383868</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1750159313446956</v>
+      </c>
+      <c r="H76">
+        <v>-0.09830123532446727</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.132219351901967</v>
+        <v>0.07270025421942281</v>
       </c>
       <c r="C77">
-        <v>-0.0142861614802153</v>
+        <v>-0.02001816060593394</v>
       </c>
       <c r="D77">
-        <v>0.07055161634655231</v>
+        <v>0.07624746109033731</v>
       </c>
       <c r="E77">
-        <v>-0.08477230440359691</v>
+        <v>-0.01145089623024253</v>
       </c>
       <c r="F77">
-        <v>0.2412658351228423</v>
+        <v>-0.01142312845203566</v>
       </c>
       <c r="G77">
-        <v>0.1468492136410224</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.120210050076476</v>
+      </c>
+      <c r="H77">
+        <v>-0.05956005412434701</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04837684029119512</v>
+        <v>0.03273268392058126</v>
       </c>
       <c r="C78">
-        <v>0.01200399773936085</v>
+        <v>-0.01380951599827376</v>
       </c>
       <c r="D78">
-        <v>0.02830265609130912</v>
+        <v>0.05479366808145234</v>
       </c>
       <c r="E78">
-        <v>-0.09689230053049204</v>
+        <v>0.005930697862939133</v>
       </c>
       <c r="F78">
-        <v>0.04087045620222958</v>
+        <v>-0.05162301224461174</v>
       </c>
       <c r="G78">
-        <v>0.07063485199409919</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.048098427535818</v>
+      </c>
+      <c r="H78">
+        <v>0.03057560929519598</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1998778660690362</v>
+        <v>0.1683753592276912</v>
       </c>
       <c r="C80">
-        <v>-0.1311668196246102</v>
+        <v>-0.07903402745760113</v>
       </c>
       <c r="D80">
-        <v>-0.9263311325910893</v>
+        <v>0.004749863670659464</v>
       </c>
       <c r="E80">
-        <v>-0.2501414385990907</v>
+        <v>0.9610105972778046</v>
       </c>
       <c r="F80">
-        <v>0.03284618461469727</v>
+        <v>0.1233794764266525</v>
       </c>
       <c r="G80">
-        <v>-0.02282792736473007</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.09933314940448747</v>
+      </c>
+      <c r="H80">
+        <v>0.0094077567848092</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.147786288799426</v>
+        <v>0.1427421555705183</v>
       </c>
       <c r="C81">
-        <v>0.1049777207406477</v>
+        <v>-0.0914103198331154</v>
       </c>
       <c r="D81">
-        <v>0.02595116075358427</v>
+        <v>0.05964100206802882</v>
       </c>
       <c r="E81">
-        <v>-0.07790610601981489</v>
+        <v>-0.0005664999750252275</v>
       </c>
       <c r="F81">
-        <v>-0.1646456504335457</v>
+        <v>-0.1120231732031572</v>
       </c>
       <c r="G81">
-        <v>0.02392831911666884</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.104279714479032</v>
+      </c>
+      <c r="H81">
+        <v>-0.06991801311326527</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05099493059978014</v>
+        <v>0.03722109157299187</v>
       </c>
       <c r="C83">
-        <v>-0.01027161293761456</v>
+        <v>-0.01304922607775789</v>
       </c>
       <c r="D83">
-        <v>0.03632974636367601</v>
+        <v>0.02124475714584098</v>
       </c>
       <c r="E83">
-        <v>-0.03372196144178105</v>
+        <v>-0.01218461393297218</v>
       </c>
       <c r="F83">
-        <v>0.06606740296278271</v>
+        <v>-0.01392642041813007</v>
       </c>
       <c r="G83">
-        <v>0.06364432134416524</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05213705546479738</v>
+      </c>
+      <c r="H83">
+        <v>0.01710347936996723</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2204013291366545</v>
+        <v>0.2018430737550908</v>
       </c>
       <c r="C85">
-        <v>0.1033073872870457</v>
+        <v>-0.1155659420465412</v>
       </c>
       <c r="D85">
-        <v>0.04366780884172746</v>
+        <v>0.1119902071528455</v>
       </c>
       <c r="E85">
-        <v>-0.07192266067370399</v>
+        <v>-0.01245435613078207</v>
       </c>
       <c r="F85">
-        <v>-0.1891735296781608</v>
+        <v>-0.1433510938221969</v>
       </c>
       <c r="G85">
-        <v>0.09493762468566549</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1623735278947245</v>
+      </c>
+      <c r="H85">
+        <v>-0.0699222300518159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003289012927319032</v>
+        <v>0.01347129692065625</v>
       </c>
       <c r="C86">
-        <v>-0.01162738034087175</v>
+        <v>0.0004269208194768357</v>
       </c>
       <c r="D86">
-        <v>0.003913725273469072</v>
+        <v>0.009351805784793598</v>
       </c>
       <c r="E86">
-        <v>-0.05309191288133442</v>
+        <v>-0.007997518130399547</v>
       </c>
       <c r="F86">
-        <v>0.07623758960654022</v>
+        <v>-0.0004007024520360588</v>
       </c>
       <c r="G86">
-        <v>0.03654773025042413</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.07482748735453344</v>
+      </c>
+      <c r="H86">
+        <v>0.04169531469944924</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02820622251614044</v>
+        <v>0.0252772120432279</v>
       </c>
       <c r="C87">
-        <v>0.00927247955262011</v>
+        <v>-0.006308375841679056</v>
       </c>
       <c r="D87">
-        <v>0.007372666810190907</v>
+        <v>0.02471689819019835</v>
       </c>
       <c r="E87">
-        <v>-0.02864235584422099</v>
+        <v>0.0005464194562385831</v>
       </c>
       <c r="F87">
-        <v>0.06385496255812292</v>
+        <v>-0.02756521335512149</v>
       </c>
       <c r="G87">
-        <v>0.004705438883373627</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08557788607115982</v>
+      </c>
+      <c r="H87">
+        <v>0.02863996712876342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.008681080072991586</v>
+        <v>0.03787805124022104</v>
       </c>
       <c r="C88">
-        <v>0.01814878127079369</v>
+        <v>0.004727115717104916</v>
       </c>
       <c r="D88">
-        <v>-0.02285124516009828</v>
+        <v>-0.006273752338453342</v>
       </c>
       <c r="E88">
-        <v>0.006045411177921217</v>
+        <v>0.007941242936860611</v>
       </c>
       <c r="F88">
-        <v>0.03192826680677543</v>
+        <v>-0.01226073327016117</v>
       </c>
       <c r="G88">
-        <v>0.0868926919573083</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.007902853790531721</v>
+      </c>
+      <c r="H88">
+        <v>0.006787769994787431</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1280084909192541</v>
+        <v>0.2114930553457905</v>
       </c>
       <c r="C89">
-        <v>0.09762563132397664</v>
+        <v>-0.07365472715542938</v>
       </c>
       <c r="D89">
-        <v>-0.0391924932712823</v>
+        <v>-0.3158298324319922</v>
       </c>
       <c r="E89">
-        <v>0.3099276274626686</v>
+        <v>-0.08074049952128147</v>
       </c>
       <c r="F89">
-        <v>0.1010058200313683</v>
+        <v>0.1725200494111823</v>
       </c>
       <c r="G89">
-        <v>0.0488566545092655</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.002391580767921787</v>
+      </c>
+      <c r="H89">
+        <v>-0.02476352860428233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1157424648386364</v>
+        <v>0.168235478376087</v>
       </c>
       <c r="C90">
-        <v>0.09954447572747178</v>
+        <v>-0.05968143073727868</v>
       </c>
       <c r="D90">
-        <v>-0.086031301632636</v>
+        <v>-0.2772387627466786</v>
       </c>
       <c r="E90">
-        <v>0.2682160785968273</v>
+        <v>-0.05192225251648127</v>
       </c>
       <c r="F90">
-        <v>0.05796503981675825</v>
+        <v>0.1638241748800755</v>
       </c>
       <c r="G90">
-        <v>-0.02456577313368015</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03375711992208173</v>
+      </c>
+      <c r="H90">
+        <v>-0.04375506377747992</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2834068567451605</v>
+        <v>0.2190053902762313</v>
       </c>
       <c r="C91">
-        <v>0.1014623157787121</v>
+        <v>-0.1376365577385204</v>
       </c>
       <c r="D91">
-        <v>0.06504564573218487</v>
+        <v>0.1139799480880977</v>
       </c>
       <c r="E91">
-        <v>-0.06909941027553659</v>
+        <v>-0.0141405261183481</v>
       </c>
       <c r="F91">
-        <v>-0.2501314471510835</v>
+        <v>-0.152819858759201</v>
       </c>
       <c r="G91">
-        <v>0.05186233113151319</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2139030289158328</v>
+      </c>
+      <c r="H91">
+        <v>-0.1308503004600986</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1852945437670993</v>
+        <v>0.221959573868859</v>
       </c>
       <c r="C92">
-        <v>0.09439414276129897</v>
+        <v>-0.1351969292357218</v>
       </c>
       <c r="D92">
-        <v>-0.1184171655274615</v>
+        <v>-0.230373579843801</v>
       </c>
       <c r="E92">
-        <v>0.478760448738479</v>
+        <v>-0.03767324066770224</v>
       </c>
       <c r="F92">
-        <v>0.1086948046745898</v>
+        <v>0.1337523666488772</v>
       </c>
       <c r="G92">
-        <v>0.243887469731607</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.05614880551278123</v>
+      </c>
+      <c r="H92">
+        <v>-0.1490312465529751</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1299126944708585</v>
+        <v>0.1917312801836131</v>
       </c>
       <c r="C93">
-        <v>0.08307329611949284</v>
+        <v>-0.07475117397505461</v>
       </c>
       <c r="D93">
-        <v>-0.09573353042701972</v>
+        <v>-0.2936382719744616</v>
       </c>
       <c r="E93">
-        <v>0.3792811334946006</v>
+        <v>-0.07003002462548304</v>
       </c>
       <c r="F93">
-        <v>0.007148041525985527</v>
+        <v>0.2003569544845871</v>
       </c>
       <c r="G93">
-        <v>-0.04208183366103214</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03971266862962104</v>
+      </c>
+      <c r="H93">
+        <v>0.01670692184375159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2551134192918182</v>
+        <v>0.2395299687249103</v>
       </c>
       <c r="C94">
-        <v>0.1354643157223425</v>
+        <v>-0.1302033545514031</v>
       </c>
       <c r="D94">
-        <v>0.0418594571290429</v>
+        <v>0.08877861151540689</v>
       </c>
       <c r="E94">
-        <v>-0.09812046483871008</v>
+        <v>-0.03155476689793357</v>
       </c>
       <c r="F94">
-        <v>-0.2950622767816589</v>
+        <v>-0.1725028675091526</v>
       </c>
       <c r="G94">
-        <v>0.006539066921736216</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2216727211021908</v>
+      </c>
+      <c r="H94">
+        <v>-0.1427039610318524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08154077644856754</v>
+        <v>0.06324164842437867</v>
       </c>
       <c r="C95">
-        <v>0.01989602282524029</v>
+        <v>-0.04208661054659771</v>
       </c>
       <c r="D95">
-        <v>0.06774797427876326</v>
+        <v>0.07131835403795103</v>
       </c>
       <c r="E95">
-        <v>-0.06196176440616926</v>
+        <v>-0.07038044703962071</v>
       </c>
       <c r="F95">
-        <v>0.05049609999757982</v>
+        <v>-0.03095252329260783</v>
       </c>
       <c r="G95">
-        <v>0.3793905799056477</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06298785759775047</v>
+      </c>
+      <c r="H95">
+        <v>0.00872860863191857</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.193747787886903</v>
+        <v>0.1717820017896365</v>
       </c>
       <c r="C98">
-        <v>0.05453311624743101</v>
+        <v>-0.09807590641700503</v>
       </c>
       <c r="D98">
-        <v>0.04608622091297705</v>
+        <v>0.02869510213641084</v>
       </c>
       <c r="E98">
-        <v>0.05320097946410893</v>
+        <v>-0.05581208925032503</v>
       </c>
       <c r="F98">
-        <v>0.04104230904720772</v>
+        <v>-0.03526261004123116</v>
       </c>
       <c r="G98">
-        <v>-0.2680234518228723</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1497965122101338</v>
+      </c>
+      <c r="H98">
+        <v>0.3735115245836977</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003168621550532332</v>
+        <v>0.01396351731209852</v>
       </c>
       <c r="C101">
-        <v>0.02709146784168975</v>
+        <v>-0.002391125851950217</v>
       </c>
       <c r="D101">
-        <v>0.01151504069451832</v>
+        <v>0.003442668376115823</v>
       </c>
       <c r="E101">
-        <v>-0.1201855888008192</v>
+        <v>0.005762616576768045</v>
       </c>
       <c r="F101">
-        <v>0.1994039616295668</v>
+        <v>-0.03563626116462693</v>
       </c>
       <c r="G101">
-        <v>-0.05795988104176095</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09834565425250454</v>
+      </c>
+      <c r="H101">
+        <v>-0.07038408334269314</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09008339278787945</v>
+        <v>0.1014264801756547</v>
       </c>
       <c r="C102">
-        <v>0.03121127544107173</v>
+        <v>-0.05052068774487165</v>
       </c>
       <c r="D102">
-        <v>0.01740539217140467</v>
+        <v>0.056461889840951</v>
       </c>
       <c r="E102">
-        <v>-0.0848680767157136</v>
+        <v>0.0008964187080634197</v>
       </c>
       <c r="F102">
-        <v>-0.1228355631251288</v>
+        <v>-0.0771488599200434</v>
       </c>
       <c r="G102">
-        <v>0.09725975165811629</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09553430400316237</v>
+      </c>
+      <c r="H102">
+        <v>-0.05733109349260812</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.0236207135068458</v>
+        <v>0.02121921481188275</v>
       </c>
       <c r="C103">
-        <v>0.01128599889272672</v>
+        <v>-0.01163666980192487</v>
       </c>
       <c r="D103">
-        <v>0.01096905584798775</v>
+        <v>0.01275289067007581</v>
       </c>
       <c r="E103">
-        <v>-0.007920297946798082</v>
+        <v>0.006068952850463584</v>
       </c>
       <c r="F103">
-        <v>-0.02292282849153152</v>
+        <v>-0.01853815128190402</v>
       </c>
       <c r="G103">
-        <v>0.03854679262059486</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.009900791335154218</v>
+      </c>
+      <c r="H103">
+        <v>-0.01006679052807001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.4116865510899224</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.8882089451904528</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.07100249695037128</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02453559688070519</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1570825010244037</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03710394977060882</v>
+      </c>
+      <c r="H104">
+        <v>-0.03249639269295688</v>
       </c>
     </row>
   </sheetData>
